--- a/安全建设顺序-安全建设第二版.xlsx
+++ b/安全建设顺序-安全建设第二版.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9300" tabRatio="930" activeTab="5"/>
+    <workbookView windowWidth="23040" windowHeight="9300" tabRatio="930"/>
   </bookViews>
   <sheets>
     <sheet name="资产梳理及安全管理" sheetId="11" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="175">
   <si>
     <t>资产梳理</t>
   </si>
@@ -253,6 +253,18 @@
   </si>
   <si>
     <t>安全管理</t>
+  </si>
+  <si>
+    <t>开发组件，服务组件等工具类</t>
+  </si>
+  <si>
+    <t>Xcode，phpstudy</t>
+  </si>
+  <si>
+    <t>供应链投毒攻击</t>
+  </si>
+  <si>
+    <t>传统资产管理系统的升级或互相调用</t>
   </si>
   <si>
     <t>资产</t>
@@ -1165,7 +1177,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1193,6 +1205,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1545,15 +1560,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.73148148148148" defaultRowHeight="14.4" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="22.1851851851852" style="3" customWidth="1"/>
+    <col min="1" max="1" width="22.1851851851852" style="10" customWidth="1"/>
     <col min="2" max="2" width="19" style="4" customWidth="1"/>
     <col min="3" max="3" width="21.5462962962963" style="4" customWidth="1"/>
     <col min="4" max="4" width="20.5555555555556" style="4" customWidth="1"/>
@@ -1565,7 +1580,7 @@
   </cols>
   <sheetData>
     <row r="1" ht="28.8" spans="1:8">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
@@ -1585,7 +1600,7 @@
       </c>
     </row>
     <row r="2" ht="76" customHeight="1" spans="1:8">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -1605,7 +1620,7 @@
       </c>
     </row>
     <row r="3" ht="49" customHeight="1" spans="1:5">
-      <c r="A3" s="5"/>
+      <c r="A3" s="6"/>
       <c r="B3" s="4" t="s">
         <v>12</v>
       </c>
@@ -1620,7 +1635,7 @@
       </c>
     </row>
     <row r="4" ht="43.2" spans="1:5">
-      <c r="A4" s="5"/>
+      <c r="A4" s="6"/>
       <c r="B4" s="4" t="s">
         <v>16</v>
       </c>
@@ -1635,7 +1650,7 @@
       </c>
     </row>
     <row r="6" ht="28.8" spans="1:5">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="6" t="s">
         <v>20</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -1652,7 +1667,7 @@
       </c>
     </row>
     <row r="7" ht="28.8" spans="1:5">
-      <c r="A7" s="5"/>
+      <c r="A7" s="6"/>
       <c r="B7" s="4" t="s">
         <v>25</v>
       </c>
@@ -1667,7 +1682,7 @@
       </c>
     </row>
     <row r="9" ht="43.2" spans="1:5">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="6" t="s">
         <v>28</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -1684,7 +1699,7 @@
       </c>
     </row>
     <row r="10" ht="28.8" spans="1:5">
-      <c r="A10" s="5"/>
+      <c r="A10" s="6"/>
       <c r="B10" s="4" t="s">
         <v>33</v>
       </c>
@@ -1699,7 +1714,7 @@
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="5"/>
+      <c r="A11" s="6"/>
       <c r="B11" s="4" t="s">
         <v>37</v>
       </c>
@@ -1714,7 +1729,7 @@
       </c>
     </row>
     <row r="13" s="3" customFormat="1" ht="36" customHeight="1" spans="1:8">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="6" t="s">
         <v>39</v>
       </c>
       <c r="B13" s="4" t="s">
@@ -1732,7 +1747,7 @@
       <c r="H13" s="4"/>
     </row>
     <row r="14" s="3" customFormat="1" ht="43.2" spans="1:8">
-      <c r="A14" s="5"/>
+      <c r="A14" s="6"/>
       <c r="B14" s="4" t="s">
         <v>44</v>
       </c>
@@ -1748,7 +1763,7 @@
       <c r="H14" s="4"/>
     </row>
     <row r="15" s="3" customFormat="1" ht="43.2" spans="1:8">
-      <c r="A15" s="5"/>
+      <c r="A15" s="6"/>
       <c r="B15" s="4" t="s">
         <v>48</v>
       </c>
@@ -1764,7 +1779,7 @@
       <c r="H15" s="4"/>
     </row>
     <row r="16" ht="43.2" spans="1:5">
-      <c r="A16" s="5"/>
+      <c r="A16" s="6"/>
       <c r="B16" s="4" t="s">
         <v>49</v>
       </c>
@@ -1779,7 +1794,7 @@
       </c>
     </row>
     <row r="18" s="3" customFormat="1" ht="43.2" spans="1:8">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="6" t="s">
         <v>50</v>
       </c>
       <c r="B18" s="4" t="s">
@@ -1797,7 +1812,7 @@
       <c r="H18" s="4"/>
     </row>
     <row r="19" s="3" customFormat="1" spans="1:8">
-      <c r="A19" s="5"/>
+      <c r="A19" s="6"/>
       <c r="B19" s="4" t="s">
         <v>54</v>
       </c>
@@ -1813,7 +1828,7 @@
       <c r="H19" s="4"/>
     </row>
     <row r="20" customFormat="1" spans="1:8">
-      <c r="A20" s="3"/>
+      <c r="A20" s="10"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
@@ -1821,7 +1836,7 @@
       <c r="H20" s="4"/>
     </row>
     <row r="21" ht="28.8" spans="1:5">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="10" t="s">
         <v>58</v>
       </c>
       <c r="B21" s="4" t="s">
@@ -1838,21 +1853,21 @@
       </c>
     </row>
     <row r="23" ht="28.8" spans="1:4">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="10" t="s">
         <v>62</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="C23" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="D23" s="10" t="s">
+      <c r="D23" s="11" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="10" t="s">
         <v>66</v>
       </c>
       <c r="B25" s="3" t="s">
@@ -1869,7 +1884,7 @@
       </c>
     </row>
     <row r="27" ht="28.8" spans="1:5">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="10" t="s">
         <v>70</v>
       </c>
       <c r="B27" s="4" t="s">
@@ -1888,7 +1903,7 @@
       </c>
     </row>
     <row r="29" ht="28.8" spans="1:4">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="10" t="s">
         <v>75</v>
       </c>
       <c r="B29" s="4" t="s">
@@ -1899,6 +1914,22 @@
       </c>
       <c r="D29" s="4" t="s">
         <v>77</v>
+      </c>
+    </row>
+    <row r="31" ht="28.8" spans="1:3">
+      <c r="A31" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="34" ht="28.8" spans="1:1">
+      <c r="A34" s="10" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -1934,13 +1965,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="3" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" ht="28.8" spans="1:4">
@@ -1948,31 +1979,31 @@
         <v>6</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="5"/>
       <c r="B3" s="5" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="5"/>
       <c r="B4" s="5" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="2:2">
@@ -1983,13 +2014,13 @@
         <v>20</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" s="3" customFormat="1" spans="1:5">
@@ -1998,7 +2029,7 @@
         <v>66</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
@@ -2006,10 +2037,10 @@
     <row r="8" s="3" customFormat="1" spans="1:5">
       <c r="A8" s="5"/>
       <c r="B8" s="3" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
@@ -2017,13 +2048,13 @@
     <row r="9" s="3" customFormat="1" spans="1:5">
       <c r="A9" s="5"/>
       <c r="B9" s="5" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E9" s="4"/>
     </row>
@@ -2039,43 +2070,43 @@
         <v>28</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="5"/>
       <c r="B12" s="5" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13" ht="129.6" spans="1:5">
       <c r="A13" s="5"/>
       <c r="B13" s="5" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="5"/>
       <c r="B14" s="5" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="15" s="9" customFormat="1"/>
@@ -2085,25 +2116,25 @@
         <v>50</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="5"/>
       <c r="B18" s="5" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="19" ht="43.2" spans="1:3">
       <c r="A19" s="5"/>
       <c r="B19" s="6" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
     </row>
     <row r="20" spans="2:2">
@@ -2114,13 +2145,13 @@
         <v>58</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="5"/>
       <c r="B22" s="5" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -2129,16 +2160,16 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="5" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="5"/>
       <c r="B25" s="3" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="26" s="3" customFormat="1" spans="2:5">
@@ -2156,7 +2187,7 @@
         <v>70</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
@@ -2171,7 +2202,7 @@
         <v>75</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
@@ -2236,7 +2267,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2247,13 +2278,13 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="D2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2268,7 +2299,7 @@
         <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2279,7 +2310,7 @@
         <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7" ht="28.8" spans="1:3">
@@ -2288,7 +2319,7 @@
         <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2299,7 +2330,7 @@
         <v>29</v>
       </c>
       <c r="C9" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2308,7 +2339,7 @@
         <v>33</v>
       </c>
       <c r="C10" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2317,7 +2348,7 @@
         <v>37</v>
       </c>
       <c r="C11" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2328,7 +2359,7 @@
         <v>40</v>
       </c>
       <c r="C13" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -2337,16 +2368,16 @@
         <v>44</v>
       </c>
       <c r="C14" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="15" ht="28.8" spans="1:3">
       <c r="A15" s="5"/>
       <c r="B15" s="4" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="C15" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -2355,7 +2386,7 @@
         <v>49</v>
       </c>
       <c r="C16" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
     </row>
     <row r="18" ht="28.8" spans="1:3">
@@ -2363,10 +2394,10 @@
         <v>50</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="C18" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -2375,7 +2406,7 @@
         <v>54</v>
       </c>
       <c r="C19" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -2386,7 +2417,7 @@
         <v>58</v>
       </c>
       <c r="C21" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -2397,7 +2428,7 @@
         <v>63</v>
       </c>
       <c r="C23" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -2408,7 +2439,7 @@
         <v>66</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -2419,7 +2450,7 @@
         <v>71</v>
       </c>
       <c r="C27" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="29" ht="28.8" spans="1:3">
@@ -2430,7 +2461,7 @@
         <v>76</v>
       </c>
       <c r="C29" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -2473,7 +2504,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -2484,21 +2515,21 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="5"/>
       <c r="B3" s="6"/>
       <c r="C3" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="5"/>
       <c r="B4" s="6"/>
       <c r="C4" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2509,7 +2540,7 @@
         <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2518,7 +2549,7 @@
         <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2529,7 +2560,7 @@
         <v>29</v>
       </c>
       <c r="C9" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2538,7 +2569,7 @@
         <v>33</v>
       </c>
       <c r="C10" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2547,7 +2578,7 @@
         <v>37</v>
       </c>
       <c r="C11" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2558,7 +2589,7 @@
         <v>40</v>
       </c>
       <c r="C13" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -2567,7 +2598,7 @@
         <v>44</v>
       </c>
       <c r="C14" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -2576,7 +2607,7 @@
         <v>48</v>
       </c>
       <c r="C15" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -2585,7 +2616,7 @@
         <v>49</v>
       </c>
       <c r="C16" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -2593,10 +2624,10 @@
         <v>50</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="C18" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -2605,7 +2636,7 @@
         <v>54</v>
       </c>
       <c r="C19" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -2616,7 +2647,7 @@
         <v>58</v>
       </c>
       <c r="C21" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -2627,7 +2658,7 @@
         <v>63</v>
       </c>
       <c r="C23" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -2638,10 +2669,10 @@
         <v>66</v>
       </c>
       <c r="C25" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="D25" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -2652,7 +2683,7 @@
         <v>71</v>
       </c>
       <c r="C27" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -2663,7 +2694,7 @@
         <v>76</v>
       </c>
       <c r="C29" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -2693,72 +2724,72 @@
   <sheetData>
     <row r="1" spans="2:2">
       <c r="B1" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="15.6" spans="2:2">
       <c r="B7" s="1" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" ht="15.6" spans="2:2">
       <c r="B8" s="1" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" ht="15.6" spans="2:2">
       <c r="B9" s="1" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" ht="15.6" spans="2:2">
       <c r="B10" s="1" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" ht="15.6" spans="2:2">
       <c r="B11" s="1" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" ht="15.6" spans="2:2">
       <c r="B12" s="1" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" ht="15.6" spans="2:2">
       <c r="B13" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" ht="15.6" spans="2:2">
       <c r="B14" s="1" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
     </row>
     <row r="15" customFormat="1"/>
@@ -2797,7 +2828,7 @@
   <sheetPr/>
   <dimension ref="B2:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
@@ -2805,25 +2836,25 @@
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="3" spans="2:3">
       <c r="B3" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="C3" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>

--- a/安全建设顺序-安全建设第二版.xlsx
+++ b/安全建设顺序-安全建设第二版.xlsx
@@ -4,22 +4,182 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9300" tabRatio="930"/>
+    <workbookView windowWidth="23040" windowHeight="9300" tabRatio="930" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="资产梳理及安全管理" sheetId="11" r:id="rId1"/>
-    <sheet name="安全检查" sheetId="1" r:id="rId2"/>
-    <sheet name="安全加固与保护" sheetId="4" r:id="rId3"/>
-    <sheet name="感知审计监控" sheetId="5" r:id="rId4"/>
-    <sheet name="规章制度编写与发布" sheetId="2" r:id="rId5"/>
-    <sheet name="安全运营与管理" sheetId="3" r:id="rId6"/>
+    <sheet name="公司分析及建设方案" sheetId="14" r:id="rId1"/>
+    <sheet name="安全培训" sheetId="13" r:id="rId2"/>
+    <sheet name="安全需求" sheetId="12" r:id="rId3"/>
+    <sheet name="资产梳理及安全管理" sheetId="11" r:id="rId4"/>
+    <sheet name="安全评估及检查" sheetId="1" r:id="rId5"/>
+    <sheet name="安全加固与保护" sheetId="4" r:id="rId6"/>
+    <sheet name="感知审计监控" sheetId="5" r:id="rId7"/>
+    <sheet name="规章制度编写与发布" sheetId="2" r:id="rId8"/>
+    <sheet name="安全运营与管理" sheetId="3" r:id="rId9"/>
+    <sheet name="物理安全及灾备" sheetId="15" r:id="rId10"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="243">
+  <si>
+    <t>行业</t>
+  </si>
+  <si>
+    <t>业务</t>
+  </si>
+  <si>
+    <t>产品</t>
+  </si>
+  <si>
+    <t>核心资产</t>
+  </si>
+  <si>
+    <t>核心安全威胁</t>
+  </si>
+  <si>
+    <t>通用安全威胁</t>
+  </si>
+  <si>
+    <t>威胁解决方案</t>
+  </si>
+  <si>
+    <t>解决成本（时间成本，人员投入，金钱投入）</t>
+  </si>
+  <si>
+    <t>优先级建议</t>
+  </si>
+  <si>
+    <t>分类</t>
+  </si>
+  <si>
+    <t>安全意识</t>
+  </si>
+  <si>
+    <t>安全开发</t>
+  </si>
+  <si>
+    <t>安全运维</t>
+  </si>
+  <si>
+    <t>系统安全</t>
+  </si>
+  <si>
+    <t>主机安全</t>
+  </si>
+  <si>
+    <t>网络安全</t>
+  </si>
+  <si>
+    <t>数据安全</t>
+  </si>
+  <si>
+    <t>信息安全</t>
+  </si>
+  <si>
+    <t>针对开发的培训</t>
+  </si>
+  <si>
+    <t>安全开发规范</t>
+  </si>
+  <si>
+    <t>安全编码规范</t>
+  </si>
+  <si>
+    <t>针对测试的培训</t>
+  </si>
+  <si>
+    <t>为什么需要安全测试</t>
+  </si>
+  <si>
+    <t>针对产品的培训</t>
+  </si>
+  <si>
+    <t>为什么需要安全评估，安全需求</t>
+  </si>
+  <si>
+    <t>安全需求分类</t>
+  </si>
+  <si>
+    <t>保密性需求</t>
+  </si>
+  <si>
+    <t>数据脱敏</t>
+  </si>
+  <si>
+    <t>数据加密</t>
+  </si>
+  <si>
+    <t>传输过程中安全</t>
+  </si>
+  <si>
+    <t>完整性校验</t>
+  </si>
+  <si>
+    <t>完整性需求</t>
+  </si>
+  <si>
+    <t>设计架构等图完整</t>
+  </si>
+  <si>
+    <t>接口功能等文档完整</t>
+  </si>
+  <si>
+    <t>灾备</t>
+  </si>
+  <si>
+    <t>可用性需求</t>
+  </si>
+  <si>
+    <t>使用高可用架构，有负载均衡、限流等措施</t>
+  </si>
+  <si>
+    <t>可认证需求</t>
+  </si>
+  <si>
+    <t>安全的认知体系，无法被破解，爆破，篡改</t>
+  </si>
+  <si>
+    <t>授权需求</t>
+  </si>
+  <si>
+    <t>细粒度的访问控制授权，对外的接口授权</t>
+  </si>
+  <si>
+    <t>可审计性需求</t>
+  </si>
+  <si>
+    <t>日志链路完整，格式统一，可解析</t>
+  </si>
+  <si>
+    <t>| 完整性 | 保护数据不被篡改 | 数字签名、数据校验、访问控制等 |</t>
+  </si>
+  <si>
+    <t>有审计功能，能对系统使用人的行为进行审计</t>
+  </si>
+  <si>
+    <t>合规性需求</t>
+  </si>
+  <si>
+    <t>按等保/GDPR/法律法规条目检查</t>
+  </si>
+  <si>
+    <t>可扩展，有对外接口</t>
+  </si>
+  <si>
+    <t>方便以后进行二次开发</t>
+  </si>
+  <si>
+    <t>安全管理</t>
+  </si>
+  <si>
+    <t>产品功能及业务的了解，然后根据这些分解出对应的他们的潜在安全需求，并摆到明面上</t>
+  </si>
+  <si>
+    <t>物理安全需求</t>
+  </si>
   <si>
     <t>资产梳理</t>
   </si>
@@ -246,15 +406,39 @@
     <t>全员培训</t>
   </si>
   <si>
+    <t>网络资产</t>
+  </si>
+  <si>
+    <t>生产网络</t>
+  </si>
+  <si>
+    <t>网络职能混淆混乱</t>
+  </si>
+  <si>
+    <t>测试网络</t>
+  </si>
+  <si>
+    <t>弱口令等网络接入控制</t>
+  </si>
+  <si>
+    <t>开发网络</t>
+  </si>
+  <si>
+    <t>ad域</t>
+  </si>
+  <si>
+    <t>办公网络</t>
+  </si>
+  <si>
+    <t>网络隔离问题</t>
+  </si>
+  <si>
     <t>平台账号资产</t>
   </si>
   <si>
     <t>微博，B站，知乎，微信</t>
   </si>
   <si>
-    <t>安全管理</t>
-  </si>
-  <si>
     <t>开发组件，服务组件等工具类</t>
   </si>
   <si>
@@ -321,7 +505,10 @@
     <t>合规检查</t>
   </si>
   <si>
-    <t>数据安全、内容安全</t>
+    <t>用户协议</t>
+  </si>
+  <si>
+    <t>内容安全</t>
   </si>
   <si>
     <t>逻辑漏洞</t>
@@ -330,7 +517,7 @@
     <t>渗透测试、IAST等动态模糊测试</t>
   </si>
   <si>
-    <t>依赖漏洞</t>
+    <t>开放框架，依赖漏洞</t>
   </si>
   <si>
     <t>依赖包检查，git或HIDS</t>
@@ -342,6 +529,12 @@
     <t>https://dimitr.im/dependency-vulnerability-checks-sonarqube</t>
   </si>
   <si>
+    <t>威胁建模</t>
+  </si>
+  <si>
+    <t>梳理应用组件，梳理数据流</t>
+  </si>
+  <si>
     <t>业务安全</t>
   </si>
   <si>
@@ -360,6 +553,12 @@
     <t>安全审计</t>
   </si>
   <si>
+    <t>代码逻辑漏洞审计，代码权限审计，代码拉取行为审计，安全开发规范审计</t>
+  </si>
+  <si>
+    <t>创建CICD审计规则</t>
+  </si>
+  <si>
     <t>依赖安全检查</t>
   </si>
   <si>
@@ -474,6 +673,9 @@
     <t>GitHub监控、git权限审计，操作审计</t>
   </si>
   <si>
+    <t>依照安全开发规范，设定规则，利用cicd对代码进行审计</t>
+  </si>
+  <si>
     <t>安全配置检查</t>
   </si>
   <si>
@@ -531,6 +733,9 @@
     <t>数据安全、脱敏</t>
   </si>
   <si>
+    <t>逐步实现自动化</t>
+  </si>
+  <si>
     <t>SOC平台</t>
   </si>
   <si>
@@ -544,6 +749,9 @@
   </si>
   <si>
     <t>平台实现，事件发现，接入安全设备，事件阻止的直接能力。</t>
+  </si>
+  <si>
+    <t>应急响应</t>
   </si>
 </sst>
 </file>
@@ -556,7 +764,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -587,6 +795,12 @@
     </font>
     <font>
       <sz val="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -1035,10 +1249,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1047,16 +1261,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1065,16 +1279,13 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1086,98 +1297,101 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1206,10 +1420,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1560,15 +1780,360 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H34"/>
+  <dimension ref="A2:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1"/>
+  <cols>
+    <col min="3" max="3" width="7.44444444444444" customWidth="1"/>
+    <col min="4" max="4" width="12.3333333333333" customWidth="1"/>
+    <col min="5" max="5" width="15.4444444444444" customWidth="1"/>
+    <col min="6" max="6" width="17.2222222222222" customWidth="1"/>
+    <col min="7" max="7" width="14.6666666666667" customWidth="1"/>
+    <col min="8" max="8" width="14" style="13" customWidth="1"/>
+    <col min="9" max="9" width="15.8888888888889" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" ht="57.6" spans="1:9">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="18.5555555555556" customWidth="1"/>
+    <col min="2" max="2" width="17.1111111111111" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:J30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="20.2222222222222" customWidth="1"/>
+    <col min="2" max="2" width="14.2222222222222" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" ht="21" customHeight="1" spans="1:2">
+      <c r="A3" s="11"/>
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="11"/>
+      <c r="B4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="12"/>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="12"/>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="12"/>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="12"/>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="12"/>
+      <c r="B9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="12"/>
+      <c r="B11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="12"/>
+      <c r="B12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="12"/>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="12"/>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="12"/>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" t="s">
+        <v>42</v>
+      </c>
+      <c r="J19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="12"/>
+      <c r="B20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B21" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>51</v>
+      </c>
+      <c r="B30" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:A4"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H40"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.73148148148148" defaultRowHeight="14.4" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="22.1851851851852" style="10" customWidth="1"/>
+    <col min="1" max="1" width="22.1851851851852" style="4" customWidth="1"/>
     <col min="2" max="2" width="19" style="4" customWidth="1"/>
     <col min="3" max="3" width="21.5462962962963" style="4" customWidth="1"/>
     <col min="4" max="4" width="20.5555555555556" style="4" customWidth="1"/>
@@ -1580,255 +2145,255 @@
   </cols>
   <sheetData>
     <row r="1" ht="28.8" spans="1:8">
-      <c r="A1" s="10" t="s">
-        <v>0</v>
+      <c r="A1" s="4" t="s">
+        <v>52</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>2</v>
+        <v>54</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>3</v>
+        <v>55</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>4</v>
+        <v>56</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>5</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" ht="76" customHeight="1" spans="1:8">
       <c r="A2" s="6" t="s">
-        <v>6</v>
+        <v>58</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>7</v>
+        <v>59</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>9</v>
+        <v>61</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>10</v>
+        <v>62</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>11</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" ht="49" customHeight="1" spans="1:5">
       <c r="A3" s="6"/>
       <c r="B3" s="4" t="s">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>14</v>
+        <v>66</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>15</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" ht="43.2" spans="1:5">
       <c r="A4" s="6"/>
       <c r="B4" s="4" t="s">
-        <v>16</v>
+        <v>68</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>17</v>
+        <v>69</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>19</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" ht="28.8" spans="1:5">
       <c r="A6" s="6" t="s">
-        <v>20</v>
+        <v>72</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>21</v>
+        <v>73</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>22</v>
+        <v>74</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>23</v>
+        <v>75</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>24</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" ht="28.8" spans="1:5">
       <c r="A7" s="6"/>
       <c r="B7" s="4" t="s">
-        <v>25</v>
+        <v>77</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>26</v>
+        <v>78</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>24</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" ht="43.2" spans="1:5">
       <c r="A9" s="6" t="s">
-        <v>28</v>
+        <v>80</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>29</v>
+        <v>81</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>30</v>
+        <v>82</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>32</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" ht="28.8" spans="1:5">
       <c r="A10" s="6"/>
       <c r="B10" s="4" t="s">
-        <v>33</v>
+        <v>85</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>34</v>
+        <v>86</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>35</v>
+        <v>87</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>36</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="6"/>
       <c r="B11" s="4" t="s">
-        <v>37</v>
+        <v>89</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>38</v>
+        <v>90</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>35</v>
+        <v>87</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>32</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" s="3" customFormat="1" ht="36" customHeight="1" spans="1:8">
       <c r="A13" s="6" t="s">
-        <v>39</v>
+        <v>91</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>40</v>
+        <v>92</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>41</v>
+        <v>93</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>42</v>
+        <v>94</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>43</v>
+        <v>95</v>
       </c>
       <c r="H13" s="4"/>
     </row>
     <row r="14" s="3" customFormat="1" ht="43.2" spans="1:8">
       <c r="A14" s="6"/>
       <c r="B14" s="4" t="s">
-        <v>44</v>
+        <v>96</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>45</v>
+        <v>97</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>46</v>
+        <v>98</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>47</v>
+        <v>99</v>
       </c>
       <c r="H14" s="4"/>
     </row>
     <row r="15" s="3" customFormat="1" ht="43.2" spans="1:8">
       <c r="A15" s="6"/>
       <c r="B15" s="4" t="s">
-        <v>48</v>
+        <v>100</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>45</v>
+        <v>97</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>46</v>
+        <v>98</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>47</v>
+        <v>99</v>
       </c>
       <c r="H15" s="4"/>
     </row>
     <row r="16" ht="43.2" spans="1:5">
       <c r="A16" s="6"/>
       <c r="B16" s="4" t="s">
-        <v>49</v>
+        <v>101</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>45</v>
+        <v>97</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>46</v>
+        <v>98</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>47</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18" s="3" customFormat="1" ht="43.2" spans="1:8">
       <c r="A18" s="6" t="s">
-        <v>50</v>
+        <v>102</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>51</v>
+        <v>103</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>52</v>
+        <v>104</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>53</v>
+        <v>105</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>24</v>
+        <v>76</v>
       </c>
       <c r="H18" s="4"/>
     </row>
     <row r="19" s="3" customFormat="1" spans="1:8">
       <c r="A19" s="6"/>
       <c r="B19" s="4" t="s">
-        <v>54</v>
+        <v>106</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>55</v>
+        <v>107</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>56</v>
+        <v>108</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>57</v>
+        <v>109</v>
       </c>
       <c r="H19" s="4"/>
     </row>
     <row r="20" customFormat="1" spans="1:8">
-      <c r="A20" s="10"/>
+      <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
@@ -1836,100 +2401,135 @@
       <c r="H20" s="4"/>
     </row>
     <row r="21" ht="28.8" spans="1:5">
-      <c r="A21" s="10" t="s">
-        <v>58</v>
+      <c r="A21" s="4" t="s">
+        <v>110</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>58</v>
+        <v>110</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>59</v>
+        <v>111</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>60</v>
+        <v>112</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>61</v>
+        <v>113</v>
       </c>
     </row>
     <row r="23" ht="28.8" spans="1:4">
-      <c r="A23" s="10" t="s">
-        <v>62</v>
+      <c r="A23" s="4" t="s">
+        <v>114</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="D23" s="11" t="s">
-        <v>65</v>
+        <v>115</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="10" t="s">
-        <v>66</v>
+      <c r="A25" s="4" t="s">
+        <v>118</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>66</v>
+        <v>118</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>67</v>
+        <v>119</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>68</v>
+        <v>120</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>69</v>
+        <v>121</v>
       </c>
     </row>
     <row r="27" ht="28.8" spans="1:5">
-      <c r="A27" s="10" t="s">
-        <v>70</v>
+      <c r="A27" s="4" t="s">
+        <v>122</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>71</v>
+        <v>123</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>72</v>
+        <v>124</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>73</v>
+        <v>125</v>
       </c>
     </row>
     <row r="28" spans="5:5">
       <c r="E28" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="29" ht="28.8" spans="1:4">
-      <c r="A29" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="31" ht="28.8" spans="1:3">
-      <c r="A31" s="10" t="s">
-        <v>78</v>
-      </c>
+        <v>126</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3">
       <c r="B31" s="4" t="s">
-        <v>79</v>
+        <v>130</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="34" ht="28.8" spans="1:1">
-      <c r="A34" s="10" t="s">
-        <v>81</v>
+        <v>131</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3">
+      <c r="B32" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3">
+      <c r="B33" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="35" ht="28.8" spans="1:4">
+      <c r="A35" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="37" ht="28.8" spans="1:3">
+      <c r="A37" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="40" ht="28.8" spans="1:1">
+      <c r="A40" s="4" t="s">
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -1945,13 +2545,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E35"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:A14"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -1965,45 +2565,45 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="3" t="s">
-        <v>82</v>
+        <v>142</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>83</v>
+        <v>143</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>84</v>
+        <v>144</v>
       </c>
     </row>
     <row r="2" ht="28.8" spans="1:4">
       <c r="A2" s="5" t="s">
-        <v>6</v>
+        <v>58</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>85</v>
+        <v>145</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>86</v>
+        <v>146</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>87</v>
+        <v>147</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="5"/>
       <c r="B3" s="5" t="s">
-        <v>88</v>
+        <v>148</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>89</v>
+        <v>149</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="5"/>
       <c r="B4" s="5" t="s">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>91</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5" spans="2:2">
@@ -2011,25 +2611,25 @@
     </row>
     <row r="6" ht="28.8" spans="1:4">
       <c r="A6" s="5" t="s">
-        <v>20</v>
+        <v>72</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>92</v>
+        <v>152</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>93</v>
+        <v>153</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>94</v>
+        <v>154</v>
       </c>
     </row>
     <row r="7" s="3" customFormat="1" spans="1:5">
       <c r="A7" s="5"/>
       <c r="B7" s="5" t="s">
-        <v>66</v>
+        <v>118</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>95</v>
+        <v>155</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
@@ -2037,10 +2637,10 @@
     <row r="8" s="3" customFormat="1" spans="1:5">
       <c r="A8" s="5"/>
       <c r="B8" s="3" t="s">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>91</v>
+        <v>151</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
@@ -2048,13 +2648,13 @@
     <row r="9" s="3" customFormat="1" spans="1:5">
       <c r="A9" s="5"/>
       <c r="B9" s="5" t="s">
-        <v>96</v>
+        <v>156</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>97</v>
+        <v>157</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>98</v>
+        <v>158</v>
       </c>
       <c r="E9" s="4"/>
     </row>
@@ -2067,148 +2667,155 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="5" t="s">
-        <v>28</v>
+        <v>80</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>99</v>
+        <v>159</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
       <c r="A12" s="5"/>
       <c r="B12" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="13" ht="129.6" spans="1:5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
       <c r="A13" s="5"/>
       <c r="B13" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>106</v>
+        <v>161</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="5"/>
       <c r="B14" s="5" t="s">
-        <v>107</v>
+        <v>162</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="15" s="9" customFormat="1"/>
-    <row r="16" s="9" customFormat="1"/>
+        <v>163</v>
+      </c>
+    </row>
+    <row r="15" ht="129.6" spans="1:5">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>169</v>
+      </c>
+    </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="5" t="s">
-        <v>50</v>
-      </c>
+      <c r="A17" s="5"/>
       <c r="B17" s="5" t="s">
-        <v>90</v>
+        <v>170</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="19" ht="43.2" spans="1:3">
-      <c r="A19" s="5"/>
-      <c r="B19" s="6" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="18" s="9" customFormat="1"/>
+    <row r="19" s="9" customFormat="1"/>
+    <row r="20" spans="1:3">
+      <c r="A20" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="5"/>
+      <c r="B21" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="22" ht="43.2" spans="1:3">
+      <c r="A22" s="5"/>
+      <c r="B22" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23" s="5"/>
+    </row>
+    <row r="24" ht="28.8" spans="1:4">
+      <c r="A24" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2">
-      <c r="B20" s="5"/>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="5"/>
-      <c r="B22" s="5" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="5"/>
-      <c r="B23" s="5"/>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="5" t="s">
-        <v>114</v>
-      </c>
       <c r="B24" s="5" t="s">
-        <v>115</v>
+        <v>175</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="5"/>
-      <c r="B25" s="3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="26" s="3" customFormat="1" spans="2:5">
+      <c r="B25" s="5" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="5"/>
       <c r="B26" s="5"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-    </row>
-    <row r="27" s="3" customFormat="1" spans="2:5">
-      <c r="B27" s="5"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-    </row>
-    <row r="28" s="3" customFormat="1" spans="1:5">
-      <c r="A28" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="5"/>
+      <c r="B28" s="3" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="29" s="3" customFormat="1" spans="2:5">
       <c r="B29" s="5"/>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
     </row>
-    <row r="30" s="3" customFormat="1" spans="1:5">
-      <c r="A30" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>90</v>
-      </c>
+    <row r="30" s="3" customFormat="1" spans="2:5">
+      <c r="B30" s="5"/>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
     </row>
-    <row r="31" s="3" customFormat="1" spans="2:5">
-      <c r="B31" s="5"/>
+    <row r="31" s="3" customFormat="1" spans="1:5">
+      <c r="A31" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>182</v>
+      </c>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
     </row>
@@ -2217,25 +2824,45 @@
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
     </row>
-    <row r="33" s="3" customFormat="1" spans="2:5">
-      <c r="B33" s="5"/>
+    <row r="33" s="3" customFormat="1" spans="1:5">
+      <c r="A33" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>150</v>
+      </c>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
     </row>
-    <row r="34" spans="2:2">
+    <row r="34" s="3" customFormat="1" spans="2:5">
       <c r="B34" s="5"/>
-    </row>
-    <row r="35" spans="2:2">
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+    </row>
+    <row r="35" s="3" customFormat="1" spans="2:5">
       <c r="B35" s="5"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+    </row>
+    <row r="36" s="3" customFormat="1" spans="2:5">
+      <c r="B36" s="5"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+    </row>
+    <row r="37" spans="2:2">
+      <c r="B37" s="5"/>
+    </row>
+    <row r="38" spans="2:2">
+      <c r="B38" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="A6:A9"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A11:A17"/>
+    <mergeCell ref="A20:A22"/>
     <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A27:A28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2243,13 +2870,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.73148148148148" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -2261,207 +2888,207 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="3" t="s">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="C1" t="s">
-        <v>118</v>
+        <v>183</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="5" t="s">
-        <v>6</v>
+        <v>58</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>7</v>
+        <v>59</v>
       </c>
       <c r="C2" t="s">
-        <v>119</v>
+        <v>184</v>
       </c>
       <c r="D2" t="s">
-        <v>120</v>
+        <v>185</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>121</v>
+        <v>186</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="5"/>
       <c r="B3" s="4" t="s">
-        <v>12</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" ht="43.2" spans="1:3">
       <c r="A4" s="5"/>
       <c r="B4" s="4" t="s">
-        <v>16</v>
+        <v>68</v>
       </c>
       <c r="C4" t="s">
-        <v>122</v>
+        <v>187</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="5" t="s">
-        <v>20</v>
+        <v>72</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>21</v>
+        <v>73</v>
       </c>
       <c r="C6" t="s">
-        <v>123</v>
+        <v>188</v>
       </c>
     </row>
     <row r="7" ht="28.8" spans="1:3">
       <c r="A7" s="5"/>
       <c r="B7" s="4" t="s">
-        <v>25</v>
+        <v>77</v>
       </c>
       <c r="C7" t="s">
-        <v>124</v>
+        <v>189</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="5" t="s">
-        <v>28</v>
+        <v>80</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>29</v>
+        <v>81</v>
       </c>
       <c r="C9" t="s">
-        <v>125</v>
+        <v>190</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="5"/>
       <c r="B10" s="4" t="s">
-        <v>33</v>
+        <v>85</v>
       </c>
       <c r="C10" t="s">
-        <v>126</v>
+        <v>191</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="5"/>
       <c r="B11" s="4" t="s">
-        <v>37</v>
+        <v>89</v>
       </c>
       <c r="C11" t="s">
-        <v>125</v>
+        <v>190</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="5" t="s">
-        <v>39</v>
+        <v>91</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>40</v>
+        <v>92</v>
       </c>
       <c r="C13" t="s">
-        <v>127</v>
+        <v>192</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="5"/>
       <c r="B14" s="4" t="s">
-        <v>44</v>
+        <v>96</v>
       </c>
       <c r="C14" t="s">
-        <v>128</v>
+        <v>193</v>
       </c>
     </row>
     <row r="15" ht="28.8" spans="1:3">
       <c r="A15" s="5"/>
       <c r="B15" s="4" t="s">
-        <v>129</v>
+        <v>194</v>
       </c>
       <c r="C15" t="s">
-        <v>130</v>
+        <v>195</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="5"/>
       <c r="B16" s="4" t="s">
-        <v>49</v>
+        <v>101</v>
       </c>
       <c r="C16" t="s">
-        <v>131</v>
+        <v>196</v>
       </c>
     </row>
     <row r="18" ht="28.8" spans="1:3">
       <c r="A18" s="5" t="s">
-        <v>50</v>
+        <v>102</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>132</v>
+        <v>197</v>
       </c>
       <c r="C18" t="s">
-        <v>133</v>
+        <v>198</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="5"/>
       <c r="B19" s="4" t="s">
-        <v>54</v>
+        <v>106</v>
       </c>
       <c r="C19" t="s">
-        <v>134</v>
+        <v>199</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="3" t="s">
-        <v>58</v>
+        <v>110</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>58</v>
+        <v>110</v>
       </c>
       <c r="C21" t="s">
-        <v>135</v>
+        <v>200</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="3" t="s">
-        <v>62</v>
+        <v>114</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>63</v>
+        <v>115</v>
       </c>
       <c r="C23" t="s">
-        <v>136</v>
+        <v>201</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="3" t="s">
-        <v>66</v>
+        <v>118</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>66</v>
+        <v>118</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>137</v>
+        <v>202</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="3" t="s">
-        <v>70</v>
+        <v>122</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>71</v>
+        <v>123</v>
       </c>
       <c r="C27" t="s">
-        <v>138</v>
+        <v>203</v>
       </c>
     </row>
     <row r="29" ht="28.8" spans="1:3">
       <c r="A29" s="3" t="s">
-        <v>75</v>
+        <v>136</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>76</v>
+        <v>137</v>
       </c>
       <c r="C29" t="s">
-        <v>134</v>
+        <v>199</v>
       </c>
     </row>
   </sheetData>
@@ -2480,221 +3107,225 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.73148148148148" defaultRowHeight="14.4" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="22.1851851851852" style="3" customWidth="1"/>
     <col min="2" max="2" width="22.4444444444444" style="4" customWidth="1"/>
-    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="3" max="3" width="21.2222222222222" customWidth="1"/>
+    <col min="4" max="4" width="17.5555555555556" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="3" t="s">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="C1" t="s">
-        <v>139</v>
+        <v>204</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="5" t="s">
-        <v>6</v>
+        <v>58</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>7</v>
+        <v>59</v>
       </c>
       <c r="C2" t="s">
-        <v>140</v>
+        <v>205</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="5"/>
       <c r="B3" s="6"/>
       <c r="C3" t="s">
-        <v>141</v>
+        <v>206</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="5"/>
       <c r="B4" s="6"/>
       <c r="C4" t="s">
-        <v>142</v>
+        <v>207</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="5" t="s">
-        <v>20</v>
+        <v>72</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>21</v>
+        <v>73</v>
       </c>
       <c r="C6" t="s">
-        <v>143</v>
+        <v>208</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="5"/>
       <c r="B7" s="4" t="s">
-        <v>25</v>
+        <v>77</v>
       </c>
       <c r="C7" t="s">
-        <v>144</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="5" t="s">
-        <v>28</v>
+        <v>80</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>29</v>
+        <v>81</v>
       </c>
       <c r="C9" t="s">
-        <v>145</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="5"/>
       <c r="B10" s="4" t="s">
-        <v>33</v>
+        <v>85</v>
       </c>
       <c r="C10" t="s">
-        <v>146</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="5"/>
       <c r="B11" s="4" t="s">
-        <v>37</v>
+        <v>89</v>
       </c>
       <c r="C11" t="s">
-        <v>147</v>
+        <v>212</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="5" t="s">
-        <v>39</v>
+        <v>91</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>40</v>
+        <v>92</v>
       </c>
       <c r="C13" t="s">
-        <v>148</v>
+        <v>213</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="5"/>
       <c r="B14" s="4" t="s">
-        <v>44</v>
+        <v>96</v>
       </c>
       <c r="C14" t="s">
-        <v>147</v>
+        <v>212</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="5"/>
       <c r="B15" s="4" t="s">
-        <v>48</v>
+        <v>100</v>
       </c>
       <c r="C15" t="s">
-        <v>147</v>
+        <v>212</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="5"/>
       <c r="B16" s="4" t="s">
-        <v>49</v>
+        <v>101</v>
       </c>
       <c r="C16" t="s">
-        <v>147</v>
+        <v>212</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="5" t="s">
-        <v>50</v>
+        <v>102</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>132</v>
+        <v>197</v>
       </c>
       <c r="C18" t="s">
-        <v>149</v>
+        <v>214</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="5"/>
       <c r="B19" s="4" t="s">
-        <v>54</v>
+        <v>106</v>
       </c>
       <c r="C19" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="3" t="s">
-        <v>58</v>
+        <v>110</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>58</v>
+        <v>110</v>
       </c>
       <c r="C21" t="s">
-        <v>150</v>
+        <v>215</v>
+      </c>
+      <c r="D21" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="3" t="s">
-        <v>62</v>
+        <v>114</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>63</v>
+        <v>115</v>
       </c>
       <c r="C23" t="s">
-        <v>151</v>
+        <v>217</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="3" t="s">
-        <v>66</v>
+        <v>118</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>66</v>
+        <v>118</v>
       </c>
       <c r="C25" t="s">
-        <v>152</v>
+        <v>218</v>
       </c>
       <c r="D25" t="s">
-        <v>153</v>
+        <v>219</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="3" t="s">
-        <v>70</v>
+        <v>122</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>71</v>
+        <v>123</v>
       </c>
       <c r="C27" t="s">
-        <v>154</v>
+        <v>220</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="3" t="s">
-        <v>75</v>
+        <v>136</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>76</v>
+        <v>137</v>
       </c>
       <c r="C29" t="s">
-        <v>155</v>
+        <v>221</v>
       </c>
     </row>
   </sheetData>
@@ -2711,85 +3342,85 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" spans="2:2">
       <c r="B1" t="s">
-        <v>156</v>
+        <v>222</v>
       </c>
     </row>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>157</v>
+        <v>223</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>158</v>
+        <v>224</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>159</v>
+        <v>225</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>160</v>
+        <v>226</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" t="s">
-        <v>161</v>
+        <v>227</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="15.6" spans="2:2">
       <c r="B7" s="1" t="s">
-        <v>162</v>
+        <v>228</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" ht="15.6" spans="2:2">
       <c r="B8" s="1" t="s">
-        <v>163</v>
+        <v>229</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" ht="15.6" spans="2:2">
       <c r="B9" s="1" t="s">
-        <v>164</v>
+        <v>230</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" ht="15.6" spans="2:2">
       <c r="B10" s="1" t="s">
-        <v>165</v>
+        <v>231</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" ht="15.6" spans="2:2">
       <c r="B11" s="1" t="s">
-        <v>166</v>
+        <v>232</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" ht="15.6" spans="2:2">
       <c r="B12" s="1" t="s">
-        <v>167</v>
+        <v>233</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" ht="15.6" spans="2:2">
       <c r="B13" t="s">
-        <v>168</v>
+        <v>234</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" ht="15.6" spans="2:2">
       <c r="B14" s="1" t="s">
-        <v>169</v>
+        <v>235</v>
       </c>
     </row>
     <row r="15" customFormat="1"/>
@@ -2823,38 +3454,48 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B2:C5"/>
+  <dimension ref="B2:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="7" outlineLevelCol="2"/>
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="3" spans="2:3">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>171</v>
-      </c>
-      <c r="C3" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="4" spans="2:2">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3">
       <c r="B4" t="s">
-        <v>173</v>
+        <v>238</v>
+      </c>
+      <c r="C4" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>174</v>
+        <v>240</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2">
+      <c r="B6" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2">
+      <c r="B8" t="s">
+        <v>242</v>
       </c>
     </row>
   </sheetData>
